--- a/Guiao_5_Explicacao.xlsx
+++ b/Guiao_5_Explicacao.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\li2-201920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2FD6D83-EC1A-41C0-A2F7-A19444223D8E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335576D-6908-4E87-A699-902EB9300826}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{35D824C9-7FEE-4A53-A2BF-021AAF15F07D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{35D824C9-7FEE-4A53-A2BF-021AAF15F07D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabuleiro Inicial" sheetId="1" r:id="rId1"/>
+    <sheet name="jogar()" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +32,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>Tabuleiro Inicial</t>
+  </si>
+  <si>
+    <t>Função Jogar</t>
+  </si>
+  <si>
+    <t>COORD PECA</t>
+  </si>
+  <si>
+    <t>COORD INPUT</t>
+  </si>
+  <si>
+    <t>5,5</t>
+  </si>
+  <si>
+    <t>4,4</t>
   </si>
 </sst>
 </file>
@@ -126,7 +142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -138,10 +154,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8006AC83-5E0F-4492-A24C-A0AD0A7DF61C}">
   <dimension ref="B2:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,16 +488,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -501,7 +520,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="Q5" s="6"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -574,4 +593,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5FF5F12-341E-44F3-AFA6-1B3151B1C692}">
+  <dimension ref="B2:Q11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="9" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="K6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Guiao_5_Explicacao.xlsx
+++ b/Guiao_5_Explicacao.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\li2-201920\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335576D-6908-4E87-A699-902EB9300826}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02B552B-5079-49A2-9B8E-F90D8034E08E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{35D824C9-7FEE-4A53-A2BF-021AAF15F07D}"/>
   </bookViews>
@@ -155,11 +155,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -488,16 +488,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -600,7 +600,7 @@
   <dimension ref="B2:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,16 +610,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
@@ -642,10 +642,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="5"/>
@@ -659,10 +659,10 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
